--- a/docs/excel/FunctionOpen.xlsx
+++ b/docs/excel/FunctionOpen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>随机约会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启类型1引导 2关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,14 +596,15 @@
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.796875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="4"/>
+    <col min="4" max="4" width="17.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,6 +617,9 @@
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -619,6 +631,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -635,6 +650,9 @@
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
@@ -644,9 +662,11 @@
         <v>24</v>
       </c>
       <c r="C5" s="7">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -656,9 +676,11 @@
         <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -668,9 +690,11 @@
         <v>26</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -680,9 +704,11 @@
         <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -692,9 +718,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -706,7 +734,9 @@
       <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -718,7 +748,9 @@
       <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -730,7 +762,9 @@
       <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>

--- a/docs/excel/FunctionOpen.xlsx
+++ b/docs/excel/FunctionOpen.xlsx
@@ -596,7 +596,7 @@
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -738,12 +738,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>34</v>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -752,12 +752,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -780,9 +780,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
